--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B55C8-C99E-4EF5-AC29-2DD311A6126A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A5BB75-5006-41E3-9812-EB7769935510}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>what</t>
   </si>
@@ -82,30 +82,6 @@
     <t>Korea Employment Promotion Agency for the Disabled</t>
   </si>
   <si>
-    <t>Engaging Blind Learners in Statistics Study Using R</t>
-  </si>
-  <si>
-    <t>The TLT (Teaching and Learning with Technology) Symposium</t>
-  </si>
-  <si>
-    <t>Automatic Knowledge Structure Measure in Online Courses</t>
-  </si>
-  <si>
-    <t>Assistive Technologies for Equal Access in General Education</t>
-  </si>
-  <si>
-    <t>Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>More Accessible, More Potential: Simple Tips for Online Accessibility</t>
-  </si>
-  <si>
-    <t>Blue Bell, PA</t>
-  </si>
-  <si>
-    <t>Technology and Learning Conference, Montgomery County Community College</t>
-  </si>
-  <si>
     <t>Accessibility of Math, Statistics, and Social Sciences</t>
   </si>
   <si>
@@ -160,21 +136,9 @@
     <t>Invited student panel to the first Ed-ICT International Network symposium.</t>
   </si>
   <si>
-    <t>Presented Penn State faculty members, instructional designers, and staff how to teach Statistics in more efficient and accessible way for the students with visual impairments using R programming environment.</t>
-  </si>
-  <si>
     <t>A Small Step to Take Your Data Analysis to Another Level</t>
   </si>
   <si>
-    <t>Presented conference session attendees about how to design their online learning content in an accessible way.</t>
-  </si>
-  <si>
-    <t>Showcased on some combinations of ICT and assistive technologies for students with visual impairments.</t>
-  </si>
-  <si>
-    <t>Presented Penn State faculty members, instructional designers, and staff about how to employ automatic network-based measurement system to visualize students' knowledge structure of any given content.</t>
-  </si>
-  <si>
     <t>Jul. 2019</t>
   </si>
   <si>
@@ -206,15 +170,6 @@
   </si>
   <si>
     <t>Jul. 2016</t>
-  </si>
-  <si>
-    <t>Mar. 2016</t>
-  </si>
-  <si>
-    <t>Nov. 2015</t>
-  </si>
-  <si>
-    <t>Oct. 2015</t>
   </si>
   <si>
     <t>Key-Note Speech for STEM Extension</t>
@@ -1134,9 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -1159,127 +1116,127 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B7" s="1"/>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
@@ -1287,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1304,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1313,24 +1270,24 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="65" x14ac:dyDescent="0.75">
       <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
@@ -1338,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1347,7 +1304,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
@@ -1355,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1364,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
@@ -1372,84 +1329,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A5BB75-5006-41E3-9812-EB7769935510}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>what</t>
   </si>
@@ -40,15 +40,6 @@
     <t>Inclusive Making</t>
   </si>
   <si>
-    <t>The Rapidly Changing World of Accessible Online Learning</t>
-  </si>
-  <si>
-    <t>Jacsonville, FL</t>
-  </si>
-  <si>
-    <t>AECT (The Association for Educational Communications and Technology) International Convention</t>
-  </si>
-  <si>
     <t>Northwestern University</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t>Canvas Day 17</t>
   </si>
   <si>
-    <t>Panel Discussion: DDL - Accessible Online Learning In Concurrent Presentation.</t>
-  </si>
-  <si>
     <t>Student Panel Discussion: Student Issues</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
   </si>
   <si>
     <t>Apr. 2017</t>
-  </si>
-  <si>
-    <t>Nov. 2017</t>
   </si>
   <si>
     <t>Oct. 2017</t>
@@ -218,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,12 +340,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -720,18 +699,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,11 +1067,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -1116,186 +1092,186 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B7" s="1"/>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="147.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>5</v>
+    <row r="11" spans="1:5" ht="65" x14ac:dyDescent="0.75">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="65" x14ac:dyDescent="0.75">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1304,41 +1280,24 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
